--- a/teaching/traditional_assets/database/data/israel/israel_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0324</v>
+        <v>0.199</v>
       </c>
       <c r="E2">
-        <v>0.000449999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="G2">
-        <v>0.01704332660179915</v>
+        <v>0.008370052407654425</v>
       </c>
       <c r="H2">
-        <v>0.01702955755461722</v>
+        <v>0.008370052407654425</v>
       </c>
       <c r="I2">
-        <v>0.01146499775543033</v>
+        <v>0.009343608352351391</v>
       </c>
       <c r="J2">
-        <v>0.008959777863400353</v>
+        <v>0.006964060672359158</v>
       </c>
       <c r="K2">
-        <v>283.52</v>
+        <v>548.3430000000001</v>
       </c>
       <c r="L2">
-        <v>0.2602533504681476</v>
+        <v>0.346651030768161</v>
       </c>
       <c r="M2">
-        <v>526.54</v>
+        <v>228.71738</v>
       </c>
       <c r="N2">
-        <v>0.1708796469080111</v>
+        <v>0.04970496142562208</v>
       </c>
       <c r="O2">
-        <v>1.857152934537246</v>
+        <v>0.4171064096742367</v>
       </c>
       <c r="P2">
-        <v>518.24</v>
+        <v>147.74538</v>
       </c>
       <c r="Q2">
-        <v>0.1681860223603291</v>
+        <v>0.0321080908399435</v>
       </c>
       <c r="R2">
-        <v>1.827878103837472</v>
+        <v>0.269439712005077</v>
       </c>
       <c r="S2">
-        <v>8.299999999999983</v>
+        <v>80.97199999999999</v>
       </c>
       <c r="T2">
-        <v>0.01576328484065785</v>
+        <v>0.3540264408415311</v>
       </c>
       <c r="U2">
-        <v>487.219</v>
+        <v>753.2529999999999</v>
       </c>
       <c r="V2">
-        <v>0.158118681746637</v>
+        <v>0.1636972726284907</v>
       </c>
       <c r="W2">
-        <v>0.1705790297339593</v>
+        <v>0.1235217524277872</v>
       </c>
       <c r="X2">
-        <v>0.03309848446401997</v>
+        <v>0.02226351506388253</v>
       </c>
       <c r="Y2">
-        <v>0.1374805452699394</v>
+        <v>0.1012582373639046</v>
       </c>
       <c r="Z2">
-        <v>0.4578482174700493</v>
+        <v>0.3495462591989492</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03108449096612699</v>
+        <v>0.02356126378216529</v>
       </c>
       <c r="AC2">
-        <v>-0.03157056038240502</v>
+        <v>-0.02356126378216529</v>
       </c>
       <c r="AD2">
-        <v>2828.59</v>
+        <v>3008.15</v>
       </c>
       <c r="AE2">
-        <v>3.735157226171017</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2832.325157226171</v>
+        <v>3008.15</v>
       </c>
       <c r="AG2">
-        <v>2345.106157226171</v>
+        <v>2254.897</v>
       </c>
       <c r="AH2">
-        <v>0.4789450015300946</v>
+        <v>0.3953072743161644</v>
       </c>
       <c r="AI2">
-        <v>0.6663016509695466</v>
+        <v>0.5874571268490648</v>
       </c>
       <c r="AJ2">
-        <v>0.4321616335374418</v>
+        <v>0.3288749178322083</v>
       </c>
       <c r="AK2">
-        <v>0.6231024953948701</v>
+        <v>0.5163047559907825</v>
       </c>
       <c r="AL2">
-        <v>1.129</v>
+        <v>3.721</v>
       </c>
       <c r="AM2">
-        <v>-4.231999999999999</v>
+        <v>3.675</v>
       </c>
       <c r="AN2">
-        <v>132.63574978899</v>
+        <v>147.3860852523273</v>
       </c>
       <c r="AO2">
-        <v>10.21877767936227</v>
+        <v>3.972050524052674</v>
       </c>
       <c r="AP2">
-        <v>109.9646514689192</v>
+        <v>110.4800097991181</v>
       </c>
       <c r="AQ2">
-        <v>-2.726134215500946</v>
+        <v>4.021768707482993</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.009820000000000001</v>
+        <v>0.0242</v>
       </c>
       <c r="E3">
-        <v>-0.021</v>
+        <v>-0.383</v>
       </c>
       <c r="G3">
-        <v>0.165650406504065</v>
+        <v>0.09609374999999999</v>
       </c>
       <c r="H3">
-        <v>0.165040650406504</v>
+        <v>0.09609374999999999</v>
       </c>
       <c r="I3">
-        <v>0.1073170731707317</v>
+        <v>0.09414062500000001</v>
       </c>
       <c r="J3">
-        <v>0.09163227016885553</v>
+        <v>0.0470703125</v>
       </c>
       <c r="K3">
-        <v>2.57</v>
+        <v>0.007</v>
       </c>
       <c r="L3">
-        <v>0.1044715447154471</v>
+        <v>0.0002734375</v>
       </c>
       <c r="M3">
-        <v>1.68</v>
+        <v>1.45148</v>
       </c>
       <c r="N3">
-        <v>0.04883720930232558</v>
+        <v>0.03283891402714932</v>
       </c>
       <c r="O3">
-        <v>0.6536964980544747</v>
+        <v>207.3542857142857</v>
       </c>
       <c r="P3">
-        <v>1.68</v>
+        <v>0.57948</v>
       </c>
       <c r="Q3">
-        <v>0.04883720930232558</v>
+        <v>0.013110407239819</v>
       </c>
       <c r="R3">
-        <v>0.6536964980544747</v>
+        <v>82.78285714285714</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.8720000000000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.6007661145864911</v>
       </c>
       <c r="U3">
-        <v>12.2</v>
+        <v>9.32</v>
       </c>
       <c r="V3">
-        <v>0.3546511627906977</v>
+        <v>0.2108597285067873</v>
       </c>
       <c r="W3">
-        <v>0.09113475177304964</v>
+        <v>0.0002287581699346405</v>
       </c>
       <c r="X3">
-        <v>0.02832116770567585</v>
+        <v>0.01834747692720139</v>
       </c>
       <c r="Y3">
-        <v>0.06281358406737379</v>
+        <v>-0.01811871875726675</v>
       </c>
       <c r="Z3">
-        <v>18.16838995568689</v>
+        <v>3.968992248062016</v>
       </c>
       <c r="AA3">
-        <v>1.664810816952622</v>
+        <v>0.1868217054263566</v>
       </c>
       <c r="AB3">
-        <v>0.0282316201995362</v>
+        <v>0.01837853637959094</v>
       </c>
       <c r="AC3">
-        <v>1.636579196753086</v>
+        <v>0.1684431690467657</v>
       </c>
       <c r="AD3">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="AG3">
-        <v>-10.65</v>
+        <v>-8.17</v>
       </c>
       <c r="AH3">
-        <v>0.04311543810848401</v>
+        <v>0.02535832414553473</v>
       </c>
       <c r="AI3">
-        <v>0.04791344667697063</v>
+        <v>0.03522205206738131</v>
       </c>
       <c r="AJ3">
-        <v>-0.4484210526315789</v>
+        <v>-0.2267554815431585</v>
       </c>
       <c r="AK3">
-        <v>-0.5285359801488833</v>
+        <v>-0.350192884697814</v>
       </c>
       <c r="AL3">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.099</v>
+        <v>-0.043</v>
       </c>
       <c r="AN3">
-        <v>0.4189189189189189</v>
-      </c>
-      <c r="AO3">
-        <v>23.15789473684211</v>
+        <v>0.395189003436426</v>
       </c>
       <c r="AP3">
-        <v>-2.878378378378378</v>
+        <v>-2.807560137457044</v>
       </c>
       <c r="AQ3">
-        <v>26.66666666666667</v>
+        <v>-56.04651162790699</v>
       </c>
     </row>
     <row r="4">
@@ -859,112 +856,115 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.1949934123847167</v>
+        <v>0.1458576429404901</v>
       </c>
       <c r="H4">
-        <v>0.1949934123847167</v>
+        <v>0.1458576429404901</v>
       </c>
       <c r="I4">
-        <v>0.121870882740448</v>
+        <v>0.1691948658109685</v>
       </c>
       <c r="J4">
-        <v>0.09133009797695441</v>
+        <v>0.131877119706867</v>
       </c>
       <c r="K4">
-        <v>6.25</v>
+        <v>8.32</v>
       </c>
       <c r="L4">
-        <v>0.0823451910408432</v>
+        <v>0.0970828471411902</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>2.56</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.004980544747081712</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>2.56</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.004980544747081712</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="V4">
-        <v>0.06052553882491881</v>
+        <v>0.07976653696498054</v>
       </c>
       <c r="W4">
-        <v>0.03674309229864785</v>
+        <v>0.04911452184179457</v>
       </c>
       <c r="X4">
-        <v>0.02815260121090639</v>
+        <v>0.01823076954099409</v>
       </c>
       <c r="Y4">
-        <v>0.008590491087741466</v>
+        <v>0.03088375230080048</v>
       </c>
       <c r="Z4">
-        <v>0.4794693619709414</v>
+        <v>0.5502407704654896</v>
       </c>
       <c r="AA4">
-        <v>0.04378998380575388</v>
+        <v>0.07256416795427612</v>
       </c>
       <c r="AB4">
-        <v>0.02826435883855942</v>
+        <v>0.01824264332054754</v>
       </c>
       <c r="AC4">
-        <v>0.01552562496719447</v>
+        <v>0.05432152463372857</v>
       </c>
       <c r="AD4">
-        <v>6.85</v>
+        <v>4.59</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>6.85</v>
+        <v>4.59</v>
       </c>
       <c r="AG4">
-        <v>-13.65</v>
+        <v>-36.41</v>
       </c>
       <c r="AH4">
-        <v>0.01982346983070467</v>
+        <v>0.00885092269422858</v>
       </c>
       <c r="AI4">
-        <v>0.03886524822695035</v>
+        <v>0.0247053124495398</v>
       </c>
       <c r="AJ4">
-        <v>-0.04199353945546839</v>
+        <v>-0.07623693963441444</v>
       </c>
       <c r="AK4">
-        <v>-0.08764044943820225</v>
+        <v>-0.2514676427930105</v>
       </c>
       <c r="AL4">
-        <v>0.152</v>
+        <v>3</v>
       </c>
       <c r="AM4">
-        <v>-2.818</v>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <v>0.4228395061728395</v>
+        <v>0.2341836734693877</v>
       </c>
       <c r="AO4">
-        <v>60.85526315789474</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="AP4">
-        <v>-0.8425925925925927</v>
+        <v>-1.857653061224489</v>
       </c>
       <c r="AQ4">
-        <v>-3.282469836763662</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Opal Balance Investments Ltd (TASE:OPAL)</t>
+          <t>Plus500 Ltd. (LSE:PLUS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,6 +983,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.255</v>
+      </c>
+      <c r="E5">
+        <v>0.363</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -996,85 +1002,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.46</v>
+        <v>420.1</v>
       </c>
       <c r="L5">
-        <v>0.5006711409395973</v>
+        <v>0.545088880238744</v>
       </c>
       <c r="M5">
-        <v>3.68</v>
+        <v>181.2</v>
       </c>
       <c r="N5">
-        <v>0.03535062439961575</v>
+        <v>0.08847224256628095</v>
       </c>
       <c r="O5">
-        <v>0.4932975871313673</v>
+        <v>0.4313258747917162</v>
       </c>
       <c r="P5">
-        <v>3.68</v>
+        <v>101.1</v>
       </c>
       <c r="Q5">
-        <v>0.03535062439961575</v>
+        <v>0.04936282408085543</v>
       </c>
       <c r="R5">
-        <v>0.4932975871313673</v>
+        <v>0.2406569864318019</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="U5">
-        <v>3.44</v>
+        <v>587.8</v>
       </c>
       <c r="V5">
-        <v>0.03304514889529299</v>
+        <v>0.2869977051901763</v>
       </c>
       <c r="W5">
-        <v>0.3711442786069651</v>
+        <v>1.640374853572823</v>
       </c>
       <c r="X5">
-        <v>0.03246227534840246</v>
+        <v>0.0181857867104417</v>
       </c>
       <c r="Y5">
-        <v>0.3386820032585627</v>
+        <v>1.622189066862381</v>
       </c>
       <c r="Z5">
-        <v>0.2001880961977697</v>
+        <v>-11.82055214723927</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.03000104617576375</v>
+        <v>0.01820091110142738</v>
       </c>
       <c r="AC5">
-        <v>-0.03000104617576375</v>
+        <v>-0.01820091110142738</v>
       </c>
       <c r="AD5">
-        <v>68.2</v>
+        <v>4.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>68.2</v>
+        <v>4.8</v>
       </c>
       <c r="AG5">
-        <v>64.76000000000001</v>
+        <v>-583</v>
       </c>
       <c r="AH5">
-        <v>0.395821242019733</v>
+        <v>0.002338155779628817</v>
       </c>
       <c r="AI5">
-        <v>0.6686274509803922</v>
+        <v>0.009066868152625614</v>
       </c>
       <c r="AJ5">
-        <v>0.3835129693237001</v>
+        <v>-0.3979250563101495</v>
       </c>
       <c r="AK5">
-        <v>0.6570616883116883</v>
+        <v>9.982876712328771</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1091,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Peninsula Group Ltd (TASE:PEN)</t>
+          <t>Opal Balance Investments Ltd (TASE:OPAL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1112,28 +1118,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.050000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="L6">
-        <v>0.4972527472527473</v>
+        <v>0.4445205479452055</v>
       </c>
       <c r="M6">
-        <v>6.61</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>0.04824817518248176</v>
+        <v>0.02804746494066883</v>
       </c>
       <c r="O6">
-        <v>0.7303867403314916</v>
+        <v>0.4006163328197226</v>
       </c>
       <c r="P6">
-        <v>6.61</v>
+        <v>2.6</v>
       </c>
       <c r="Q6">
-        <v>0.04824817518248176</v>
+        <v>0.02804746494066883</v>
       </c>
       <c r="R6">
-        <v>0.7303867403314916</v>
+        <v>0.4006163328197226</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1142,55 +1148,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.455</v>
+        <v>11.7</v>
       </c>
       <c r="V6">
-        <v>0.003321167883211679</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="W6">
-        <v>0.2180722891566265</v>
+        <v>0.1920118343195266</v>
       </c>
       <c r="X6">
-        <v>0.03871229734184957</v>
+        <v>0.02163253488890032</v>
       </c>
       <c r="Y6">
-        <v>0.179359991814777</v>
+        <v>0.1703792994306263</v>
       </c>
       <c r="Z6">
-        <v>0.1023737203284959</v>
+        <v>0.1481331168831169</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03108449096612699</v>
+        <v>0.0226491629861638</v>
       </c>
       <c r="AC6">
-        <v>-0.03108449096612699</v>
+        <v>-0.0226491629861638</v>
       </c>
       <c r="AD6">
-        <v>215.9</v>
+        <v>47</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>215.9</v>
+        <v>47</v>
       </c>
       <c r="AG6">
-        <v>215.445</v>
+        <v>35.3</v>
       </c>
       <c r="AH6">
-        <v>0.6117880419382262</v>
+        <v>0.3364352183249821</v>
       </c>
       <c r="AI6">
-        <v>0.7972673559822747</v>
+        <v>0.4936974789915966</v>
       </c>
       <c r="AJ6">
-        <v>0.6112868674544965</v>
+        <v>0.27578125</v>
       </c>
       <c r="AK6">
-        <v>0.7969261499195474</v>
+        <v>0.422754491017964</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1207,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nawi Brothers Group Ltd (TASE:NAWI)</t>
+          <t>Peninsula Group Ltd (TASE:PEN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,10 +1222,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0396</v>
+        <v>0.199</v>
       </c>
       <c r="E7">
-        <v>0.0219</v>
+        <v>0.43</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,82 +1240,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.8</v>
+        <v>7.71</v>
       </c>
       <c r="L7">
-        <v>0.6606060606060606</v>
+        <v>0.4405714285714286</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>5.84</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.02501070663811563</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.7574578469520103</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>5.84</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.02501070663811563</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.7574578469520103</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>0.759</v>
+        <v>47.7</v>
       </c>
       <c r="V7">
-        <v>0.003216101694915254</v>
+        <v>0.2042826552462527</v>
       </c>
       <c r="W7">
-        <v>0.1705790297339593</v>
+        <v>0.1404371584699454</v>
       </c>
       <c r="X7">
-        <v>0.04452750378611982</v>
+        <v>0.02217987066590822</v>
       </c>
       <c r="Y7">
-        <v>0.1260515259478395</v>
+        <v>0.1182572878040371</v>
       </c>
       <c r="Z7">
-        <v>0.05746325834087902</v>
+        <v>0.0647321015739148</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03157056038240502</v>
+        <v>0.02309526251115795</v>
       </c>
       <c r="AC7">
-        <v>-0.03157056038240502</v>
+        <v>-0.02309526251115795</v>
       </c>
       <c r="AD7">
-        <v>574.1</v>
+        <v>137.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>574.1</v>
+        <v>137.1</v>
       </c>
       <c r="AG7">
-        <v>573.341</v>
+        <v>89.39999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.7086779409949389</v>
+        <v>0.3699406368051807</v>
       </c>
       <c r="AI7">
-        <v>0.7865461022057816</v>
+        <v>0.5029347028613352</v>
       </c>
       <c r="AJ7">
-        <v>0.7084047391643324</v>
+        <v>0.2768659027562713</v>
       </c>
       <c r="AK7">
-        <v>0.786323907172961</v>
+        <v>0.3975100044464207</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1326,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plus500 Ltd. (LSE:PLUS)</t>
+          <t>S.R. Accord Ltd. (TASE:SRAC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1335,10 +1344,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.181</v>
+        <v>0.285</v>
       </c>
       <c r="E8">
-        <v>0.137</v>
+        <v>0.214</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1347,106 +1356,97 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002368800782415602</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001814469170748277</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>168.9</v>
+        <v>16.8</v>
       </c>
       <c r="L8">
-        <v>0.4198359433258762</v>
+        <v>0.6536964980544747</v>
       </c>
       <c r="M8">
-        <v>257.9</v>
+        <v>8.77</v>
       </c>
       <c r="N8">
-        <v>0.2015788650930123</v>
+        <v>0.03839754816112084</v>
       </c>
       <c r="O8">
-        <v>1.526939017169923</v>
+        <v>0.5220238095238094</v>
       </c>
       <c r="P8">
-        <v>249.6</v>
+        <v>8.77</v>
       </c>
       <c r="Q8">
-        <v>0.1950914491167735</v>
+        <v>0.03839754816112084</v>
       </c>
       <c r="R8">
-        <v>1.477797513321492</v>
+        <v>0.5220238095238094</v>
       </c>
       <c r="S8">
-        <v>8.299999999999983</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.03218301667312905</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>327.3</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="V8">
-        <v>0.2558230420509614</v>
+        <v>0.03782837127845885</v>
       </c>
       <c r="W8">
-        <v>0.5233963433529595</v>
+        <v>0.4855491329479769</v>
       </c>
       <c r="X8">
-        <v>0.02806697158407999</v>
+        <v>0.02234715946185685</v>
       </c>
       <c r="Y8">
-        <v>0.4953293717688795</v>
+        <v>0.46320197348612</v>
       </c>
       <c r="Z8">
-        <v>-2.171485933200652</v>
+        <v>0.1408211461855003</v>
       </c>
       <c r="AA8">
-        <v>-0.003940094280506135</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02811019199396795</v>
+        <v>0.02322275709427331</v>
       </c>
       <c r="AC8">
-        <v>-0.03205028627447409</v>
+        <v>-0.02322275709427331</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>139.7</v>
       </c>
       <c r="AE8">
-        <v>3.735157226171017</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>9.735157226171017</v>
+        <v>139.7</v>
       </c>
       <c r="AG8">
-        <v>-317.564842773829</v>
+        <v>131.06</v>
       </c>
       <c r="AH8">
-        <v>0.007551696322609129</v>
+        <v>0.3795164357511545</v>
       </c>
       <c r="AI8">
-        <v>0.03662102984327389</v>
+        <v>0.6671442215854824</v>
       </c>
       <c r="AJ8">
-        <v>-0.3301655594391578</v>
+        <v>0.3646024592444221</v>
       </c>
       <c r="AK8">
-        <v>5.166609535509044</v>
+        <v>0.6528192867105002</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-2.3</v>
-      </c>
-      <c r="AN8">
-        <v>3.529411764705882</v>
-      </c>
-      <c r="AP8">
-        <v>-186.8028486904877</v>
-      </c>
-      <c r="AQ8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S.R. Accord Ltd. (TASE:SRAC)</t>
+          <t>Isracard Ltd. (TASE:ISCD)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1465,6 +1465,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.0375</v>
+      </c>
+      <c r="E9">
+        <v>-0.0655</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1478,28 +1484,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.5</v>
+        <v>57.3</v>
       </c>
       <c r="L9">
-        <v>0.5458515283842795</v>
+        <v>0.106684043939676</v>
       </c>
       <c r="M9">
-        <v>7.47</v>
+        <v>21.3</v>
       </c>
       <c r="N9">
-        <v>0.03759436336185204</v>
+        <v>0.03155555555555556</v>
       </c>
       <c r="O9">
-        <v>0.5976</v>
+        <v>0.3717277486910995</v>
       </c>
       <c r="P9">
-        <v>7.47</v>
+        <v>21.3</v>
       </c>
       <c r="Q9">
-        <v>0.03759436336185204</v>
+        <v>0.03155555555555556</v>
       </c>
       <c r="R9">
-        <v>0.5976</v>
+        <v>0.3717277486910995</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1508,55 +1514,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.899</v>
+        <v>38</v>
       </c>
       <c r="V9">
-        <v>0.004524408656265727</v>
+        <v>0.0562962962962963</v>
       </c>
       <c r="W9">
-        <v>0.3894080996884735</v>
+        <v>0.08415332647965927</v>
       </c>
       <c r="X9">
-        <v>0.03309848446401997</v>
+        <v>0.0338093580256031</v>
       </c>
       <c r="Y9">
-        <v>0.3563096152244535</v>
+        <v>0.05034396845405617</v>
       </c>
       <c r="Z9">
-        <v>0.2089225435635434</v>
+        <v>0.2278550823010351</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03339469658824801</v>
+        <v>0.02389977047005727</v>
       </c>
       <c r="AC9">
-        <v>-0.03339469658824801</v>
+        <v>-0.02389977047005727</v>
       </c>
       <c r="AD9">
-        <v>148.8</v>
+        <v>1545.7</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>148.8</v>
+        <v>1545.7</v>
       </c>
       <c r="AG9">
-        <v>147.901</v>
+        <v>1507.7</v>
       </c>
       <c r="AH9">
-        <v>0.4282014388489209</v>
+        <v>0.6960417886252084</v>
       </c>
       <c r="AI9">
-        <v>0.8113413304252999</v>
+        <v>0.6803855973237081</v>
       </c>
       <c r="AJ9">
-        <v>0.4267183302991048</v>
+        <v>0.690749988546296</v>
       </c>
       <c r="AK9">
-        <v>0.8104119977424782</v>
+        <v>0.6749485182200734</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1573,7 +1579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isracard Ltd. (TASE:ISCD)</t>
+          <t>M.L.R.N Projects and Trade Ltd. (TASE:MLRN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1581,12 +1587,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.0252</v>
-      </c>
-      <c r="E10">
-        <v>-0.06660000000000001</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1600,28 +1600,28 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>56.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10">
-        <v>0.1142280524722502</v>
+        <v>0.4655172413793104</v>
       </c>
       <c r="M10">
-        <v>249.2</v>
+        <v>1.17</v>
       </c>
       <c r="N10">
-        <v>0.3333779264214047</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="O10">
-        <v>4.402826855123674</v>
+        <v>0.2166666666666666</v>
       </c>
       <c r="P10">
-        <v>249.2</v>
+        <v>1.17</v>
       </c>
       <c r="Q10">
-        <v>0.3333779264214047</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="R10">
-        <v>4.402826855123674</v>
+        <v>0.2166666666666666</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1630,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>121.6</v>
+        <v>4.48</v>
       </c>
       <c r="V10">
-        <v>0.1626755852842809</v>
+        <v>0.05558312655086849</v>
       </c>
       <c r="W10">
-        <v>0.06988517100876651</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="X10">
-        <v>0.04434145209210485</v>
+        <v>0.02392336249355196</v>
       </c>
       <c r="Y10">
-        <v>0.02554371891666166</v>
+        <v>0.4903623517921624</v>
       </c>
       <c r="Z10">
-        <v>0.3399890215452175</v>
+        <v>0.129608938547486</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03688878520008214</v>
+        <v>0.02572924515327266</v>
       </c>
       <c r="AC10">
-        <v>-0.03688878520008214</v>
+        <v>-0.02572924515327266</v>
       </c>
       <c r="AD10">
-        <v>1797.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1797.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AG10">
-        <v>1676.3</v>
+        <v>63.42</v>
       </c>
       <c r="AH10">
-        <v>0.7063329928498467</v>
+        <v>0.4572390572390573</v>
       </c>
       <c r="AI10">
-        <v>0.7253106341778279</v>
+        <v>0.7637795275590551</v>
       </c>
       <c r="AJ10">
-        <v>0.6915999669939764</v>
+        <v>0.4403555061796973</v>
       </c>
       <c r="AK10">
-        <v>0.7111403359918548</v>
+        <v>0.7512437810945274</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P.L.T. Financial Services Ltd (TASE:PLTF)</t>
+          <t>Nawi Brothers Group Ltd (TASE:NAWI)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1703,113 +1703,464 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D11">
+        <v>-0.00179</v>
+      </c>
+      <c r="E11">
+        <v>-0.0536</v>
+      </c>
       <c r="G11">
-        <v>-0.1466666666666667</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.1466666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.1680952380952381</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.1680952380952381</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-1.61</v>
+        <v>12.8</v>
       </c>
       <c r="L11">
-        <v>-0.7666666666666667</v>
+        <v>0.4794007490636705</v>
       </c>
       <c r="M11">
+        <v>3.825900000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.02146969696969698</v>
+      </c>
+      <c r="O11">
+        <v>0.2988984375000001</v>
+      </c>
+      <c r="P11">
+        <v>3.825900000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.02146969696969698</v>
+      </c>
+      <c r="R11">
+        <v>0.2988984375000001</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1.54</v>
+      </c>
+      <c r="V11">
+        <v>0.008641975308641976</v>
+      </c>
+      <c r="W11">
+        <v>0.0821566110397946</v>
+      </c>
+      <c r="X11">
+        <v>0.02987460521619421</v>
+      </c>
+      <c r="Y11">
+        <v>0.05228200582360039</v>
+      </c>
+      <c r="Z11">
+        <v>0.03661843182594313</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.02657791102530386</v>
+      </c>
+      <c r="AC11">
+        <v>-0.02657791102530386</v>
+      </c>
+      <c r="AD11">
+        <v>305.4</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>305.4</v>
+      </c>
+      <c r="AG11">
+        <v>303.86</v>
+      </c>
+      <c r="AH11">
+        <v>0.6315136476426799</v>
+      </c>
+      <c r="AI11">
+        <v>0.6407889215274863</v>
+      </c>
+      <c r="AJ11">
+        <v>0.6303364726382608</v>
+      </c>
+      <c r="AK11">
+        <v>0.639624468488191</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Direct Finance of Direct Group (2006) Ltd (TASE:DIFI)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>15.6</v>
+      </c>
+      <c r="L12">
+        <v>0.2516129032258064</v>
+      </c>
+      <c r="M12">
         <v>-0</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="O12">
         <v>-0</v>
       </c>
-      <c r="Q11">
+      <c r="P12">
         <v>-0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.066</v>
-      </c>
-      <c r="V11">
-        <v>0.01189189189189189</v>
-      </c>
-      <c r="W11">
-        <v>-0.4363143631436315</v>
-      </c>
-      <c r="X11">
-        <v>0.03937723998454325</v>
-      </c>
-      <c r="Y11">
-        <v>-0.4756916031281747</v>
-      </c>
-      <c r="Z11">
-        <v>0.1825769431403234</v>
-      </c>
-      <c r="AA11">
-        <v>-0.03069031472787341</v>
-      </c>
-      <c r="AB11">
-        <v>0.03587971981602343</v>
-      </c>
-      <c r="AC11">
-        <v>-0.06657003454389684</v>
-      </c>
-      <c r="AD11">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AG11">
-        <v>9.223999999999998</v>
-      </c>
-      <c r="AH11">
-        <v>0.626010781671159</v>
-      </c>
-      <c r="AI11">
-        <v>0.809233449477352</v>
-      </c>
-      <c r="AJ11">
-        <v>0.6243400568566401</v>
-      </c>
-      <c r="AK11">
-        <v>0.8081303662169266</v>
-      </c>
-      <c r="AL11">
-        <v>0.863</v>
-      </c>
-      <c r="AM11">
-        <v>0.787</v>
-      </c>
-      <c r="AN11">
-        <v>-33.90510948905109</v>
-      </c>
-      <c r="AO11">
-        <v>-0.4090382387022016</v>
-      </c>
-      <c r="AP11">
-        <v>-33.66423357664232</v>
-      </c>
-      <c r="AQ11">
-        <v>-0.44853875476493</v>
+      <c r="Q12">
+        <v>-0</v>
+      </c>
+      <c r="R12">
+        <v>-0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1.43</v>
+      </c>
+      <c r="V12">
+        <v>0.003094568275265094</v>
+      </c>
+      <c r="W12">
+        <v>0.1166791323859387</v>
+      </c>
+      <c r="X12">
+        <v>0.0287284466409282</v>
+      </c>
+      <c r="Y12">
+        <v>0.08795068574501047</v>
+      </c>
+      <c r="Z12">
+        <v>0.09563621218898949</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.0282089372921857</v>
+      </c>
+      <c r="AC12">
+        <v>-0.0282089372921857</v>
+      </c>
+      <c r="AD12">
+        <v>714.4</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>714.4</v>
+      </c>
+      <c r="AG12">
+        <v>712.97</v>
+      </c>
+      <c r="AH12">
+        <v>0.6072248193795154</v>
+      </c>
+      <c r="AI12">
+        <v>0.7884339476878932</v>
+      </c>
+      <c r="AJ12">
+        <v>0.6067468321036193</v>
+      </c>
+      <c r="AK12">
+        <v>0.7880995280046867</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gibui Holdings Ltd (TASE:GIBUI)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.966</v>
+      </c>
+      <c r="L13">
+        <v>0.3116129032258064</v>
+      </c>
+      <c r="M13">
+        <v>-0</v>
+      </c>
+      <c r="N13">
+        <v>-0</v>
+      </c>
+      <c r="O13">
+        <v>-0</v>
+      </c>
+      <c r="P13">
+        <v>-0</v>
+      </c>
+      <c r="Q13">
+        <v>-0</v>
+      </c>
+      <c r="R13">
+        <v>-0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1.34</v>
+      </c>
+      <c r="V13">
+        <v>0.06036036036036037</v>
+      </c>
+      <c r="W13">
+        <v>0.1303643724696356</v>
+      </c>
+      <c r="X13">
+        <v>0.02893737397539283</v>
+      </c>
+      <c r="Y13">
+        <v>0.1014269984942428</v>
+      </c>
+      <c r="Z13">
+        <v>0.07482500603427467</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0.0282860348087099</v>
+      </c>
+      <c r="AC13">
+        <v>-0.0282860348087099</v>
+      </c>
+      <c r="AD13">
+        <v>35</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>35</v>
+      </c>
+      <c r="AG13">
+        <v>33.66</v>
+      </c>
+      <c r="AH13">
+        <v>0.6118881118881119</v>
+      </c>
+      <c r="AI13">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="AJ13">
+        <v>0.6025778732545649</v>
+      </c>
+      <c r="AK13">
+        <v>0.7503343736067766</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Value Capital One Ltd (TASE:VALU)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>2.277</v>
+      </c>
+      <c r="G14">
+        <v>-1.124183006535948</v>
+      </c>
+      <c r="H14">
+        <v>-1.124183006535948</v>
+      </c>
+      <c r="I14">
+        <v>-1.392156862745098</v>
+      </c>
+      <c r="J14">
+        <v>-1.392156862745098</v>
+      </c>
+      <c r="K14">
+        <v>-3.15</v>
+      </c>
+      <c r="L14">
+        <v>-2.058823529411764</v>
+      </c>
+      <c r="M14">
+        <v>-0</v>
+      </c>
+      <c r="N14">
+        <v>-0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>-0</v>
+      </c>
+      <c r="Q14">
+        <v>-0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0.303</v>
+      </c>
+      <c r="V14">
+        <v>0.01346666666666667</v>
+      </c>
+      <c r="W14">
+        <v>-1.438356164383562</v>
+      </c>
+      <c r="X14">
+        <v>0.01981195114763155</v>
+      </c>
+      <c r="Y14">
+        <v>-1.458168115531193</v>
+      </c>
+      <c r="Z14">
+        <v>0.1340459085333801</v>
+      </c>
+      <c r="AA14">
+        <v>-0.1866129314876468</v>
+      </c>
+      <c r="AB14">
+        <v>0.02815734591871026</v>
+      </c>
+      <c r="AC14">
+        <v>-0.214770277406357</v>
+      </c>
+      <c r="AD14">
+        <v>5.41</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>5.41</v>
+      </c>
+      <c r="AG14">
+        <v>5.107</v>
+      </c>
+      <c r="AH14">
+        <v>0.1938373342887854</v>
+      </c>
+      <c r="AI14">
+        <v>0.9033227583903825</v>
+      </c>
+      <c r="AJ14">
+        <v>0.1849893143043431</v>
+      </c>
+      <c r="AK14">
+        <v>0.8981709461836089</v>
+      </c>
+      <c r="AL14">
+        <v>0.721</v>
+      </c>
+      <c r="AM14">
+        <v>0.718</v>
+      </c>
+      <c r="AN14">
+        <v>-2.576190476190476</v>
+      </c>
+      <c r="AO14">
+        <v>-2.954230235783634</v>
+      </c>
+      <c r="AP14">
+        <v>-2.431904761904762</v>
+      </c>
+      <c r="AQ14">
+        <v>-2.966573816155989</v>
       </c>
     </row>
   </sheetData>
